--- a/biology/Histoire de la zoologie et de la botanique/Antoine_Reille/Antoine_Reille.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antoine_Reille/Antoine_Reille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine François Marie Reille né le 2 décembre 1942 en Touraine est un ornithologiste et veneur[1] français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine François Marie Reille né le 2 décembre 1942 en Touraine est un ornithologiste et veneur français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Reille est président d'honneur de la Ligue pour la protection des oiseaux (LPO) et fondateur de France Nature Environnement. Actif défenseur du patrimoine naturel, il a été aussi vice-président du Comité permanent du Conseil national de la protection de la nature et administrateur du WWF France.
 Antoine Reille, benjamin des six enfants du baron Karl Reille (1886-1975) et de la baronne, née Odette Goury du Roslan, est un ancien élève de l'École normale supérieure pour la promotion scientifique au concours « Ulm » de 1961. Il est agrégé de physique en juillet 1965.
@@ -522,7 +536,7 @@
 Il écrit, parfois avec la collaboration de François de La Grange, de nombreux livres sur les animaux, l'homme et la nature, y compris un livre pour les enfants.
 Il publie les œuvres de son père : mémoires et aquarelles sur les thèmes de la vénerie, du célèbre rallye Baudry fondé à Cerelles par son grand-père le baron Victor Reille et repris par son père, et des châteaux et gentilhommières d'Indre-et-Loire.
 En mars 2008, il est élu maire de Nouzilly pour un mandat de six ans.
-Il est président du syndicat des forestiers privés de Touraine et malgré son engagement à la LPO, il considère que « la chasse est une activité indispensable au bon équilibre des milieux boisés et à la préservation des paysages »[2] et est un défenseur de la chasse à courre[3] qu'il pratique toujours[1].
+Il est président du syndicat des forestiers privés de Touraine et malgré son engagement à la LPO, il considère que « la chasse est une activité indispensable au bon équilibre des milieux boisés et à la préservation des paysages » et est un défenseur de la chasse à courre qu'il pratique toujours.
 </t>
         </is>
       </c>
